--- a/GIM_Locator_Vikas.xlsx
+++ b/GIM_Locator_Vikas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suganthi.r\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocatorExcel\Gim_Locators_Vikas\GIM_Locators\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="291">
   <si>
     <t>//input[@value='Log in']</t>
   </si>
@@ -871,6 +871,33 @@
   </si>
   <si>
     <t>cbSelectClaim</t>
+  </si>
+  <si>
+    <t>txtEmpolyeeName</t>
+  </si>
+  <si>
+    <t>//input[@class='form-control employeeIdName']</t>
+  </si>
+  <si>
+    <t>//input[@class='form-control claimId numberAndCommaOnly']</t>
+  </si>
+  <si>
+    <t>//label[text()='Country']/following-sibling::div/a[@class='selecty-selected']</t>
+  </si>
+  <si>
+    <t>txtCountry</t>
+  </si>
+  <si>
+    <t>//label[text()='Input Type']/following-sibling::div/a[@class='selecty-selected']</t>
+  </si>
+  <si>
+    <t>ddPeriod</t>
+  </si>
+  <si>
+    <t>btnReject</t>
+  </si>
+  <si>
+    <t>//div[contains(text(),'Filter')]/span</t>
   </si>
 </sst>
 </file>
@@ -1277,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3092,6 +3119,94 @@
         <v>191</v>
       </c>
     </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>282</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>32</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>286</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>160</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>288</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>262</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>264</v>
+      </c>
+      <c r="C171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
